--- a/other/input/AQWMS/sgs_site_names_matching_table.xlsx
+++ b/other/input/AQWMS/sgs_site_names_matching_table.xlsx
@@ -18,6 +18,78 @@
     <t xml:space="preserve">V1</t>
   </si>
   <si>
+    <t xml:space="preserve">RM0_No_Name_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM1.5_Kenai_City_Dock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM10.1_Kenai_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rm10.1_Kenai_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM10_Beaver_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM10_Beaver_creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM12.5_Pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM12.5_Pillars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM18_Poachers_Cove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM19_Slikok_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM21_Soldotna_Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM22_Soldotna_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM23_Swiftwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM23_Swiftwater_Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM30_Funny_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM31_Morgans_Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM36_Moose_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM40_Bings_Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM43_Upstream_of_Dow_Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM44_Mouth_of_Killey_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM50_Skilak_Lake_Outflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM50_Skilak_Lake_Outlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM6.5_Cunning_Hem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM6.5_Cunningham_Park</t>
+  </si>
+  <si>
     <t xml:space="preserve">RM70_Jims_Landing</t>
   </si>
   <si>
@@ -30,145 +102,73 @@
     <t xml:space="preserve">RM82_Kenai_Lake_Bridge</t>
   </si>
   <si>
-    <t xml:space="preserve">RM22_Soldotna_Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM23_Swiftwater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM31_Morgans_Landing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM30_Funny_River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM36_Moose_River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM40_Bings_Landing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM43_Upstream_of_Dow_Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM44_Mouth_of_Killey_River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM50_Skilak_Lake_Outflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM0_No_Name_Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM1.5_Kenai_City_Dock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM6.5_Cunning_Hem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM10_Beaver_Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM10.1_Kenai_River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM12.5_Pillars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM18_Poachers_Cove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM19_Slikok_Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM21_Soldotna_Bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM23_Swiftwater_Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM50_Skilak_Lake_Outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rm10.1_Kenai_River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM12.5_Pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM6.5_Cunningham_Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM10_Beaver_creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">RM_0_No_Name_Creek</t>
   </si>
   <si>
+    <t xml:space="preserve">RM_0_No_Name_Creek_</t>
+  </si>
+  <si>
     <t xml:space="preserve">RM_1.5_Kenai_City_Dock</t>
   </si>
   <si>
+    <t xml:space="preserve">RM_10_Beaver_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_10.1_Kenai_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_12.5_Pillars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_18_Poachers_Cove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_19_Slikok_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_21_Soldotna_Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_22_Soldotna_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_23_Swiftwater_Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_30_Funny_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_31_Morgans_Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_36_Moose_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_40_Bings_Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_43_Upstream_of_Dow_Isalnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_44_Mouth_of_Killey_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_50_Skilak_Lake_Outflow</t>
+  </si>
+  <si>
     <t xml:space="preserve">RM_6.5_Cunningham_Park</t>
   </si>
   <si>
-    <t xml:space="preserve">RM_10_Beaver_Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_10.1_Kenai_River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_12.5_Pillars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_18_Poachers_Cove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_19_Slikok_Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_21_Soldotna_Bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_22_Soldotna_Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_23_Swiftwater_Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_30_Funny_River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_31_Morgans_Landing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_36_Moose_River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_40_Bings_Landing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_43_Upstream_of_Dow_Isalnd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_44_Mouth_of_Killey_River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_50_Skilak_Lake_Outflow</t>
-  </si>
-  <si>
     <t xml:space="preserve">RM_70_Jims_Landing</t>
   </si>
   <si>
     <t xml:space="preserve">RM_74_Russian_River</t>
   </si>
   <si>
+    <t xml:space="preserve">RM_79.5_Juneau_Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">RM_82_Kenai_Lake_Bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_79.5_Juneau_Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_0_No_Name_Creek_</t>
   </si>
   <si>
     <t xml:space="preserve">Trip_Blank_1</t>

--- a/other/input/AQWMS/sgs_site_names_matching_table.xlsx
+++ b/other/input/AQWMS/sgs_site_names_matching_table.xlsx
@@ -183,13 +183,13 @@
     <t xml:space="preserve">Trip_Blank_4</t>
   </si>
   <si>
-    <t xml:space="preserve">RM0_No_Name_Cree_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM0_No_Name_Creek_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM31_Morgans_Landing_</t>
+    <t xml:space="preserve">RM21_Solotna_Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method_Blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab_Control_Sample</t>
   </si>
   <si>
     <t xml:space="preserve">Monitoring Location Name</t>

--- a/other/input/AQWMS/sgs_site_names_matching_table.xlsx
+++ b/other/input/AQWMS/sgs_site_names_matching_table.xlsx
@@ -13,11 +13,137 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t xml:space="preserve">V1</t>
   </si>
   <si>
+    <t xml:space="preserve">1212207001_MS_FOR_[WXX13700]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212207001_MSD_FOR_[WXX13700]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212275001_MS_FOR_[WFI2930]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212275001_MSD_FOR_[WFI2930]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212334001_MS_FOR_[WFI2930]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212334001_MSD_FOR_[WFI2930]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212341014MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212341014MSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212341018MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212341018MSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212341025MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212341040MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1610049_MS_FOR_[MXX34174]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1610051_MS_FOR_[MXX34174]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_for_HBN_1819451_(WFI/2930)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_for_HBN_1819577_(WDA/4979)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_for_HBN_1819577_[WDA/4979]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_for_HBN_1819690_(MMS/11107)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCV_for_HBN_1819451_(WFI/2930)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCV_for_HBN_1819577_(WDA/4979)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCV_for_HBN_1819577_[WDA/4979]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCV_for_HBN_1819690_(MMS/11107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICB_for_HBN_1819451_(WFI/2930)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICV_for_HBN_1819451_(WFI/2930)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICV_for_HBN_1819577_[WDA/4979]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICV_for_HBN_1819690_(MMS/11107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LABREFQC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS_for_HBN_1819376_[MXX/34173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS_for_HBN_1819377_[MXX/34174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS_for_HBN_1819451_(WFI/2930)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS_for_HBN_1819576_[WXX/13700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCSD_for_HBN_1819576_[WXX/1370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLQC_for_HBN_1819376_[MXX/3417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLQC_for_HBN_1819377_[MXX/3417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLQC_for_HBN_1819451_[WFI/2930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB_for_HBN_1819376_[MXX/34173]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB_for_HBN_1819377_[MXX/34174]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB_for_HBN_1819451_(WFI/2930)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB_for_HBN_1819576_[WXX/13700]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QCS_for_HBN_1819451_(WFI/2930)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QCS_for_HBN_1819577_[WDA/4979]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QCS_for_HBN_1819690_(MMS/11107</t>
+  </si>
+  <si>
     <t xml:space="preserve">RM0_No_Name_Creek</t>
   </si>
   <si>
@@ -100,6 +226,153 @@
   </si>
   <si>
     <t xml:space="preserve">RM82_Kenai_Lake_Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214541001_MS_FOR_[WFI2945]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214541001_MSD_FOR_[WFI2945]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214596001_MS_FOR_[WFI2945]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214596001_MSD_FOR_[WFI2945]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214655001MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214655001MSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214655013MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214655013MSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214655019MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214655019MSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1627155_MS_FOR_[MXX34483]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1627157_MS_FOR_[MXX34483]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_for_HBN_1823365_(WFI/2945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_for_HBN_1823420_(WDA/5035)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_for_HBN_1823420_[WDA/5035]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_for_HBN_1823580_(MMS/11228)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_for_HBN_1823635_(MMS/11231)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCV_for_HBN_1823365_(WFI/2945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCV_for_HBN_1823420_(WDA/5035)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCV_for_HBN_1823420_[WDA/5035]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCV_for_HBN_1823580_(MMS/11228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCV_for_HBN_1823631_(VMS/21023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCV_for_HBN_1823635_(MMS/11231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVC_for_HBN_1823631_(VMS/21023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IB_for_HBN_1823631_(VMS/21023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICB_for_HBN_1823365_(WFI/2945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICV_for_HBN_1823365_(WFI/2945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICV_for_HBN_1823420_[WDA/5035]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICV_for_HBN_1823580_(MMS/11228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICV_for_HBN_1823635_(MMS/11231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS_for_HBN_1823321_[MXX/34483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS_for_HBN_1823365_(WFI/2945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS_for_HBN_1823418_[WXX/13837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS_for_HBN_1823419_[WXX/13838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS_for_HBN_1823630_[VXX/37591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCSD_for_HBN_1823418_[WXX/1383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCSD_for_HBN_1823419_[WXX/1383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCSD_for_HBN_1823630_[VXX/3759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLQC_for_HBN_1823321_[MXX/3448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLQC_for_HBN_1823365_[WFI/2945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB_for_HBN_1823321_[MXX/34483]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB_for_HBN_1823365_(WFI/2945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB_for_HBN_1823418_[WXX/13837]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB_for_HBN_1823419_[WXX/13838]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB_for_HBN_1823630_[VXX/37591]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QCS_for_HBN_1823365_(WFI/2945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QCS_for_HBN_1823420_[WDA/5035]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QCS_for_HBN_1823580_(MMS/11228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QCS_for_HBN_1823635_(MMS/11231</t>
   </si>
   <si>
     <t xml:space="preserve">RM_0_No_Name_Creek</t>
@@ -954,6 +1227,461 @@
         <v>58</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -970,186 +1698,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/other/input/AQWMS/sgs_site_names_matching_table.xlsx
+++ b/other/input/AQWMS/sgs_site_names_matching_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t xml:space="preserve">V1</t>
   </si>
@@ -54,12 +54,48 @@
     <t xml:space="preserve">1212341040MS</t>
   </si>
   <si>
+    <t xml:space="preserve">1214541001_MS_FOR_[WFI2945]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214541001_MSD_FOR_[WFI2945]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214596001_MS_FOR_[WFI2945]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214596001_MSD_FOR_[WFI2945]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214655001MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214655001MSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214655013MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214655013MSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214655019MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1214655019MSD</t>
+  </si>
+  <si>
     <t xml:space="preserve">1610049_MS_FOR_[MXX34174]</t>
   </si>
   <si>
     <t xml:space="preserve">1610051_MS_FOR_[MXX34174]</t>
   </si>
   <si>
+    <t xml:space="preserve">1627155_MS_FOR_[MXX34483]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1627157_MS_FOR_[MXX34483]</t>
+  </si>
+  <si>
     <t xml:space="preserve">CB_for_HBN_1819451_(WFI/2930)</t>
   </si>
   <si>
@@ -72,6 +108,21 @@
     <t xml:space="preserve">CB_for_HBN_1819690_(MMS/11107)</t>
   </si>
   <si>
+    <t xml:space="preserve">CB_for_HBN_1823365_(WFI/2945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_for_HBN_1823420_(WDA/5035)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_for_HBN_1823420_[WDA/5035]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_for_HBN_1823580_(MMS/11228)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_for_HBN_1823635_(MMS/11231)</t>
+  </si>
+  <si>
     <t xml:space="preserve">CCV_for_HBN_1819451_(WFI/2930)</t>
   </si>
   <si>
@@ -84,9 +135,36 @@
     <t xml:space="preserve">CCV_for_HBN_1819690_(MMS/11107</t>
   </si>
   <si>
+    <t xml:space="preserve">CCV_for_HBN_1823365_(WFI/2945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCV_for_HBN_1823420_(WDA/5035)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCV_for_HBN_1823420_[WDA/5035]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCV_for_HBN_1823580_(MMS/11228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCV_for_HBN_1823631_(VMS/21023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCV_for_HBN_1823635_(MMS/11231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVC_for_HBN_1823631_(VMS/21023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IB_for_HBN_1823631_(VMS/21023)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ICB_for_HBN_1819451_(WFI/2930)</t>
   </si>
   <si>
+    <t xml:space="preserve">ICB_for_HBN_1823365_(WFI/2945)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ICV_for_HBN_1819451_(WFI/2930)</t>
   </si>
   <si>
@@ -96,6 +174,21 @@
     <t xml:space="preserve">ICV_for_HBN_1819690_(MMS/11107</t>
   </si>
   <si>
+    <t xml:space="preserve">ICV_for_HBN_1823365_(WFI/2945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICV_for_HBN_1823420_[WDA/5035]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICV_for_HBN_1823580_(MMS/11228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICV_for_HBN_1823635_(MMS/11231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab_Control_Sample</t>
+  </si>
+  <si>
     <t xml:space="preserve">LABREFQC</t>
   </si>
   <si>
@@ -111,9 +204,33 @@
     <t xml:space="preserve">LCS_for_HBN_1819576_[WXX/13700</t>
   </si>
   <si>
+    <t xml:space="preserve">LCS_for_HBN_1823321_[MXX/34483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS_for_HBN_1823365_(WFI/2945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS_for_HBN_1823418_[WXX/13837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS_for_HBN_1823419_[WXX/13838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS_for_HBN_1823630_[VXX/37591</t>
+  </si>
+  <si>
     <t xml:space="preserve">LCSD_for_HBN_1819576_[WXX/1370</t>
   </si>
   <si>
+    <t xml:space="preserve">LCSD_for_HBN_1823418_[WXX/1383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCSD_for_HBN_1823419_[WXX/1383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCSD_for_HBN_1823630_[VXX/3759</t>
+  </si>
+  <si>
     <t xml:space="preserve">LLQC_for_HBN_1819376_[MXX/3417</t>
   </si>
   <si>
@@ -123,6 +240,12 @@
     <t xml:space="preserve">LLQC_for_HBN_1819451_[WFI/2930</t>
   </si>
   <si>
+    <t xml:space="preserve">LLQC_for_HBN_1823321_[MXX/3448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLQC_for_HBN_1823365_[WFI/2945</t>
+  </si>
+  <si>
     <t xml:space="preserve">MB_for_HBN_1819376_[MXX/34173]</t>
   </si>
   <si>
@@ -135,6 +258,24 @@
     <t xml:space="preserve">MB_for_HBN_1819576_[WXX/13700]</t>
   </si>
   <si>
+    <t xml:space="preserve">MB_for_HBN_1823321_[MXX/34483]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB_for_HBN_1823365_(WFI/2945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB_for_HBN_1823418_[WXX/13837]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB_for_HBN_1823419_[WXX/13838]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB_for_HBN_1823630_[VXX/37591]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method_Blank</t>
+  </si>
+  <si>
     <t xml:space="preserve">QCS_for_HBN_1819451_(WFI/2930)</t>
   </si>
   <si>
@@ -144,24 +285,114 @@
     <t xml:space="preserve">QCS_for_HBN_1819690_(MMS/11107</t>
   </si>
   <si>
+    <t xml:space="preserve">QCS_for_HBN_1823365_(WFI/2945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QCS_for_HBN_1823420_[WDA/5035]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QCS_for_HBN_1823580_(MMS/11228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QCS_for_HBN_1823635_(MMS/11231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rm_0_No_Name_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_0_No_Name_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_0_No_Name_Creek_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_1.5_Kenai_City_Dock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_10.1_Kenai_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_10_Beaver_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_12.5_Pillars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_18_Poachers_Cove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_19_Slikok_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rm_21_Soldotna_Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_21_Soldotna_Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_22_Soldotna_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_23_Swiftwater_Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_30_Funny_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_31_Morgans_Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_36_Moose_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_40_Bings_Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_43_Upstream_of_Dow_Isalnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_43_Upstream_of_Dow_Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_44_Mouth_of_Killey_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_50_Skilak_Lake_Outflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_6.5_Cunningham_Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_70_Jims_Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_74_Russian_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_79.5_Juneau_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_82_Kenai_Lake_Bridge</t>
+  </si>
+  <si>
     <t xml:space="preserve">RM0_No_Name_Creek</t>
   </si>
   <si>
     <t xml:space="preserve">RM1.5_Kenai_City_Dock</t>
   </si>
   <si>
+    <t xml:space="preserve">Rm10.1_Kenai_River</t>
+  </si>
+  <si>
     <t xml:space="preserve">RM10.1_Kenai_River</t>
   </si>
   <si>
-    <t xml:space="preserve">Rm10.1_Kenai_River</t>
+    <t xml:space="preserve">RM10_Beaver_creek</t>
   </si>
   <si>
     <t xml:space="preserve">RM10_Beaver_Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">RM10_Beaver_creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">RM12.5_Pillar</t>
   </si>
   <si>
@@ -177,6 +408,9 @@
     <t xml:space="preserve">RM21_Soldotna_Bridge</t>
   </si>
   <si>
+    <t xml:space="preserve">RM21_Solotna_Bridge</t>
+  </si>
+  <si>
     <t xml:space="preserve">RM22_Soldotna_Creek</t>
   </si>
   <si>
@@ -228,222 +462,6 @@
     <t xml:space="preserve">RM82_Kenai_Lake_Bridge</t>
   </si>
   <si>
-    <t xml:space="preserve">1214541001_MS_FOR_[WFI2945]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1214541001_MSD_FOR_[WFI2945]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1214596001_MS_FOR_[WFI2945]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1214596001_MSD_FOR_[WFI2945]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1214655001MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1214655001MSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1214655013MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1214655013MSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1214655019MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1214655019MSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1627155_MS_FOR_[MXX34483]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1627157_MS_FOR_[MXX34483]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB_for_HBN_1823365_(WFI/2945)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB_for_HBN_1823420_(WDA/5035)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB_for_HBN_1823420_[WDA/5035]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB_for_HBN_1823580_(MMS/11228)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB_for_HBN_1823635_(MMS/11231)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCV_for_HBN_1823365_(WFI/2945)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCV_for_HBN_1823420_(WDA/5035)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCV_for_HBN_1823420_[WDA/5035]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCV_for_HBN_1823580_(MMS/11228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCV_for_HBN_1823631_(VMS/21023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCV_for_HBN_1823635_(MMS/11231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVC_for_HBN_1823631_(VMS/21023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IB_for_HBN_1823631_(VMS/21023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICB_for_HBN_1823365_(WFI/2945)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICV_for_HBN_1823365_(WFI/2945)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICV_for_HBN_1823420_[WDA/5035]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICV_for_HBN_1823580_(MMS/11228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICV_for_HBN_1823635_(MMS/11231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCS_for_HBN_1823321_[MXX/34483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCS_for_HBN_1823365_(WFI/2945)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCS_for_HBN_1823418_[WXX/13837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCS_for_HBN_1823419_[WXX/13838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCS_for_HBN_1823630_[VXX/37591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCSD_for_HBN_1823418_[WXX/1383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCSD_for_HBN_1823419_[WXX/1383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCSD_for_HBN_1823630_[VXX/3759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLQC_for_HBN_1823321_[MXX/3448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLQC_for_HBN_1823365_[WFI/2945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB_for_HBN_1823321_[MXX/34483]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB_for_HBN_1823365_(WFI/2945)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB_for_HBN_1823418_[WXX/13837]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB_for_HBN_1823419_[WXX/13838]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB_for_HBN_1823630_[VXX/37591]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QCS_for_HBN_1823365_(WFI/2945)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QCS_for_HBN_1823420_[WDA/5035]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QCS_for_HBN_1823580_(MMS/11228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QCS_for_HBN_1823635_(MMS/11231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_0_No_Name_Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_0_No_Name_Creek_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_1.5_Kenai_City_Dock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_10_Beaver_Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_10.1_Kenai_River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_12.5_Pillars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_18_Poachers_Cove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_19_Slikok_Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_21_Soldotna_Bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_22_Soldotna_Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_23_Swiftwater_Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_30_Funny_River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_31_Morgans_Landing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_36_Moose_River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_40_Bings_Landing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_43_Upstream_of_Dow_Isalnd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_44_Mouth_of_Killey_River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_50_Skilak_Lake_Outflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_6.5_Cunningham_Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_70_Jims_Landing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_74_Russian_River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_79.5_Juneau_Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM_82_Kenai_Lake_Bridge</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trip_Blank_1</t>
   </si>
   <si>
@@ -454,15 +472,6 @@
   </si>
   <si>
     <t xml:space="preserve">Trip_Blank_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM21_Solotna_Bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method_Blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab_Control_Sample</t>
   </si>
   <si>
     <t xml:space="preserve">Monitoring Location Name</t>
@@ -1682,6 +1691,21 @@
         <v>149</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1698,186 +1722,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
